--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Edit" sheetId="2" r:id="rId2"/>
+    <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>Announced Holiday</t>
   </si>
@@ -52,7 +53,67 @@
     <t>10-10-2019</t>
   </si>
   <si>
-    <t>12-10-2019</t>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT 
+  ANNOUNCED_HOLIDAY as 'Announced Holiday',
+  Start_Date as 'Start Date'
+  ,End_Date as 'End Date'
+  ,I.LAST_CHANGED_BY as 'Last Changed By',
+  Substring(I.LAST_CHANGED_ON,12,18) as 'Last Changed On',
+  [START_TIME] as 'Start Time'
+  ,[END_TIME] as 'End Time'
+  ,VDN
+  ,ISNULL(VDN_NAME, VDN) AS VDNName FROM IVR_HOLIDAY_LIST I LEFT JOIN VDN_DETAILS ON VDN = VDN_No;</t>
+  </si>
+  <si>
+    <t>Updated Announced Holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dusshera Updated </t>
+  </si>
+  <si>
+    <t>Modify Reason</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>40001</t>
+  </si>
+  <si>
+    <t>Durga Puja</t>
+  </si>
+  <si>
+    <t>23:59:00</t>
+  </si>
+  <si>
+    <t>10/10/2019</t>
+  </si>
+  <si>
+    <t>09/10/2019</t>
+  </si>
+  <si>
+    <t>11/10/2019</t>
+  </si>
+  <si>
+    <t>Dashera</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>09/03/2019</t>
+  </si>
+  <si>
+    <t>10/03/2019</t>
   </si>
 </sst>
 </file>
@@ -88,11 +149,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,18 +494,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -455,19 +519,119 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -477,24 +641,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
@@ -460,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -494,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -594,7 +593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -614,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -658,7 +657,7 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -732,7 +731,7 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -793,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <t>Announced Holiday</t>
   </si>
@@ -109,10 +110,16 @@
     <t>holiday</t>
   </si>
   <si>
-    <t>09/03/2019</t>
-  </si>
-  <si>
-    <t>10/03/2019</t>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>05/06/2019</t>
+  </si>
+  <si>
+    <t>06/06/2019</t>
+  </si>
+  <si>
+    <t>09/06/2019</t>
   </si>
 </sst>
 </file>
@@ -459,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,10 +608,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -621,10 +628,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
@@ -719,7 +726,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +787,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:H20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
   <si>
     <t>Announced Holiday</t>
   </si>
@@ -41,16 +41,10 @@
     <t>Dusshera</t>
   </si>
   <si>
-    <t>20021</t>
-  </si>
-  <si>
     <t>00:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">12:00:00 </t>
-  </si>
-  <si>
-    <t>10-10-2019</t>
   </si>
   <si>
     <t>Query</t>
@@ -113,13 +107,31 @@
     <t>Deleted</t>
   </si>
   <si>
-    <t>05/06/2019</t>
-  </si>
-  <si>
-    <t>06/06/2019</t>
-  </si>
-  <si>
-    <t>09/06/2019</t>
+    <t>11/12/2019</t>
+  </si>
+  <si>
+    <t>12/12/2019</t>
+  </si>
+  <si>
+    <t>(Add)</t>
+  </si>
+  <si>
+    <t>(Different VDN same holiday)</t>
+  </si>
+  <si>
+    <t>SameVDN different holiday</t>
+  </si>
+  <si>
+    <t>sameVDN same holiday different date</t>
+  </si>
+  <si>
+    <t>same date same VDN different holiday</t>
+  </si>
+  <si>
+    <t>differntdate and same time</t>
+  </si>
+  <si>
+    <t>same date and same time )</t>
   </si>
 </sst>
 </file>
@@ -464,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +492,7 @@
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,144 +512,165 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -649,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,10 +717,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -695,25 +728,25 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +759,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,10 +791,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -769,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -810,12 +843,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="5160" yWindow="1200" windowWidth="14775" windowHeight="8610" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H20"/>
+  <oleSize ref="A1:G17"/>
 </workbook>
 </file>
 
@@ -682,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -832,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1200" windowWidth="14775" windowHeight="8610" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G17"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>Announced Holiday</t>
   </si>
@@ -92,12 +92,6 @@
     <t>10/10/2019</t>
   </si>
   <si>
-    <t>09/10/2019</t>
-  </si>
-  <si>
-    <t>11/10/2019</t>
-  </si>
-  <si>
     <t>Dashera</t>
   </si>
   <si>
@@ -132,6 +126,18 @@
   </si>
   <si>
     <t>same date and same time )</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>25/12/2019</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>11/10/2020</t>
   </si>
 </sst>
 </file>
@@ -478,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,16 +520,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -532,21 +538,21 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -555,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -578,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -589,10 +595,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -601,21 +607,21 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -624,21 +630,21 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -647,21 +653,21 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -670,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +826,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
+  <oleSize ref="A1:L18"/>
 </workbook>
 </file>
 
@@ -191,6 +191,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -238,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L18"/>
+  <oleSize ref="A11:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>Announced Holiday</t>
   </si>
@@ -89,9 +89,6 @@
     <t>23:59:00</t>
   </si>
   <si>
-    <t>10/10/2019</t>
-  </si>
-  <si>
     <t>Dashera</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>(Different VDN same holiday)</t>
   </si>
   <si>
-    <t>SameVDN different holiday</t>
-  </si>
-  <si>
     <t>sameVDN same holiday different date</t>
   </si>
   <si>
@@ -128,16 +122,34 @@
     <t>same date and same time )</t>
   </si>
   <si>
-    <t>Christmas</t>
-  </si>
-  <si>
-    <t>25/12/2019</t>
-  </si>
-  <si>
-    <t>09/10/2020</t>
-  </si>
-  <si>
-    <t>11/10/2020</t>
+    <t>12/11/2019</t>
+  </si>
+  <si>
+    <t>15/11/2019</t>
+  </si>
+  <si>
+    <t>19/12/2019</t>
+  </si>
+  <si>
+    <t>20/12/2019</t>
+  </si>
+  <si>
+    <t>SameVDN different holiday different date</t>
+  </si>
+  <si>
+    <t>21/12/2019</t>
+  </si>
+  <si>
+    <t>22/12/2019</t>
+  </si>
+  <si>
+    <t>16/12/2019</t>
+  </si>
+  <si>
+    <t>17/12/2019</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,9 +511,10 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,16 +533,19 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>34</v>
@@ -541,18 +557,18 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>34</v>
@@ -564,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -575,10 +591,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -587,10 +603,10 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -598,10 +614,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -610,21 +626,21 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -633,22 +649,22 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
@@ -656,21 +672,21 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -679,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +708,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +756,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -768,7 +784,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,10 +830,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -829,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +858,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14570" windowHeight="2780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A11:N20"/>
+  <oleSize ref="A1:F2"/>
 </workbook>
 </file>
 
@@ -203,9 +203,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -253,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,7 +285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,22 +496,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="33.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -560,7 +557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -583,7 +580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -606,7 +603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -629,7 +626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -652,7 +649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -675,7 +672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -711,15 +708,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,13 +784,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,16 +854,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="83.85546875" customWidth="1"/>
+    <col min="1" max="1" width="83.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="14570" windowHeight="2780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="10230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F2"/>
+  <oleSize ref="A1:L32"/>
 </workbook>
 </file>
 
@@ -203,6 +203,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -250,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,22 +499,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -557,7 +560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -580,7 +583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -603,7 +606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -626,7 +629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -649,7 +652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -672,7 +675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -704,19 +707,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,13 +787,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="30.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -854,16 +857,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.81640625" customWidth="1"/>
+    <col min="1" max="1" width="83.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="10230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L32"/>
+  <oleSize ref="A1:M25"/>
 </workbook>
 </file>
 
@@ -499,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -707,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M25"/>
 </workbook>
 </file>
 
@@ -77,12 +81,6 @@
     <t>Delete Reason</t>
   </si>
   <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>40001</t>
-  </si>
-  <si>
     <t>Durga Puja</t>
   </si>
   <si>
@@ -98,12 +96,6 @@
     <t>Deleted</t>
   </si>
   <si>
-    <t>11/12/2019</t>
-  </si>
-  <si>
-    <t>12/12/2019</t>
-  </si>
-  <si>
     <t>(Add)</t>
   </si>
   <si>
@@ -122,34 +114,46 @@
     <t>same date and same time )</t>
   </si>
   <si>
-    <t>12/11/2019</t>
-  </si>
-  <si>
-    <t>15/11/2019</t>
-  </si>
-  <si>
-    <t>19/12/2019</t>
-  </si>
-  <si>
-    <t>20/12/2019</t>
-  </si>
-  <si>
     <t>SameVDN different holiday different date</t>
   </si>
   <si>
-    <t>21/12/2019</t>
-  </si>
-  <si>
-    <t>22/12/2019</t>
-  </si>
-  <si>
-    <t>16/12/2019</t>
-  </si>
-  <si>
-    <t>17/12/2019</t>
-  </si>
-  <si>
     <t>Scenarios</t>
+  </si>
+  <si>
+    <t>22/12/2020</t>
+  </si>
+  <si>
+    <t>19/12/2020</t>
+  </si>
+  <si>
+    <t>20/12/2020</t>
+  </si>
+  <si>
+    <t>21/12/2020</t>
+  </si>
+  <si>
+    <t>16/12/2020</t>
+  </si>
+  <si>
+    <t>17/12/2020</t>
+  </si>
+  <si>
+    <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>12/11/2020</t>
+  </si>
+  <si>
+    <t>15/11/2020</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>50001</t>
   </si>
 </sst>
 </file>
@@ -500,7 +504,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
@@ -542,13 +546,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -557,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
@@ -565,13 +569,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -580,30 +584,30 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
@@ -611,36 +615,36 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -649,21 +653,21 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -672,21 +676,21 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -695,7 +699,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +712,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,13 +757,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -784,7 +788,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,13 +831,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -845,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t>Announced Holiday</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>50001</t>
+  </si>
+  <si>
+    <t>Deepavali</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,10 +549,10 @@
     </row>
     <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
@@ -712,7 +718,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,10 +760,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>37</v>
@@ -788,12 +794,12 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" customWidth="1"/>
@@ -828,10 +834,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>37</v>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADBB987-50CF-4005-B559-293EDEF3E667}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -120,18 +121,30 @@
     <t>Scenarios</t>
   </si>
   <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>50001</t>
+  </si>
+  <si>
+    <t>19/12/2020</t>
+  </si>
+  <si>
+    <t>20/12/2020</t>
+  </si>
+  <si>
+    <t>12/11/2020</t>
+  </si>
+  <si>
+    <t>15/11/2020</t>
+  </si>
+  <si>
+    <t>21/12/2020</t>
+  </si>
+  <si>
     <t>22/12/2020</t>
   </si>
   <si>
-    <t>19/12/2020</t>
-  </si>
-  <si>
-    <t>20/12/2020</t>
-  </si>
-  <si>
-    <t>21/12/2020</t>
-  </si>
-  <si>
     <t>16/12/2020</t>
   </si>
   <si>
@@ -142,24 +155,12 @@
   </si>
   <si>
     <t>12/12/2020</t>
-  </si>
-  <si>
-    <t>12/11/2020</t>
-  </si>
-  <si>
-    <t>15/11/2020</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>50001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,6 +291,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -325,6 +343,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,25 +535,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="33.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,18 +576,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -564,18 +599,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -587,18 +622,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -610,18 +645,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -633,18 +668,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -656,18 +691,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -679,18 +714,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -708,25 +743,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,18 +787,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -784,23 +819,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -826,18 +861,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -858,24 +893,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="83.85546875" customWidth="1"/>
+    <col min="1" max="1" width="83.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
@@ -40,9 +36,6 @@
   </si>
   <si>
     <t>End Time</t>
-  </si>
-  <si>
-    <t>Dusshera</t>
   </si>
   <si>
     <t>00:00:00</t>
@@ -69,9 +62,6 @@
     <t>Updated Announced Holiday</t>
   </si>
   <si>
-    <t xml:space="preserve">Dusshera Updated </t>
-  </si>
-  <si>
     <t>Modify Reason</t>
   </si>
   <si>
@@ -81,18 +71,9 @@
     <t>Delete Reason</t>
   </si>
   <si>
-    <t>Durga Puja</t>
-  </si>
-  <si>
     <t>23:59:00</t>
   </si>
   <si>
-    <t>Dashera</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
     <t>Deleted</t>
   </si>
   <si>
@@ -154,6 +135,21 @@
   </si>
   <si>
     <t>50001</t>
+  </si>
+  <si>
+    <t>Easter</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>Holi</t>
+  </si>
+  <si>
+    <t>May day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easter Updated </t>
   </si>
 </sst>
 </file>
@@ -257,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,168 +534,168 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +708,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,36 +742,36 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -787,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,36 +816,36 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -872,12 +868,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/HolidayListData.xlsx
+++ b/ocms/src/test/resources/TestData/HolidayListData.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4387457B-F389-437F-855A-AF996E55EE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit" sheetId="2" r:id="rId2"/>
-    <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Queries" sheetId="4" r:id="rId4"/>
+    <sheet name="Search" sheetId="5" r:id="rId1"/>
+    <sheet name="Create" sheetId="1" r:id="rId2"/>
+    <sheet name="Edit" sheetId="2" r:id="rId3"/>
+    <sheet name="Delete" sheetId="3" r:id="rId4"/>
+    <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
   <si>
     <t>Announced Holiday</t>
   </si>
@@ -38,9 +44,6 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>Dusshera</t>
-  </si>
-  <si>
     <t>00:00:00</t>
   </si>
   <si>
@@ -48,6 +51,99 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Updated Announced Holiday</t>
+  </si>
+  <si>
+    <t>Modify Reason</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>Durga Puja</t>
+  </si>
+  <si>
+    <t>23:59:00</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>(Add)</t>
+  </si>
+  <si>
+    <t>(Different VDN same holiday)</t>
+  </si>
+  <si>
+    <t>sameVDN same holiday different date</t>
+  </si>
+  <si>
+    <t>same date same VDN different holiday</t>
+  </si>
+  <si>
+    <t>differntdate and same time</t>
+  </si>
+  <si>
+    <t>same date and same time )</t>
+  </si>
+  <si>
+    <t>SameVDN different holiday different date</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Makar Sankranti</t>
+  </si>
+  <si>
+    <t>50101</t>
+  </si>
+  <si>
+    <t>50103</t>
+  </si>
+  <si>
+    <t>Makar</t>
+  </si>
+  <si>
+    <t>30/12/2021</t>
+  </si>
+  <si>
+    <t>31/12/2021</t>
+  </si>
+  <si>
+    <t>21/12/2021</t>
+  </si>
+  <si>
+    <t>22/12/2021</t>
+  </si>
+  <si>
+    <t>16/12/2021</t>
+  </si>
+  <si>
+    <t>17/12/2021</t>
+  </si>
+  <si>
+    <t>18/12/2021</t>
+  </si>
+  <si>
+    <t>19/12/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday Updated </t>
+  </si>
+  <si>
+    <t>10/12/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid </t>
   </si>
   <si>
     <t>SELECT 
@@ -58,117 +154,24 @@
   Substring(I.LAST_CHANGED_ON,12,18) as 'Last Changed On',
   [START_TIME] as 'Start Time'
   ,[END_TIME] as 'End Time'
-  ,VDN
-  ,ISNULL(VDN_NAME, VDN) AS VDNName FROM IVR_HOLIDAY_LIST I LEFT JOIN VDN_DETAILS ON VDN = VDN_No;</t>
-  </si>
-  <si>
-    <t>Updated Announced Holiday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dusshera Updated </t>
-  </si>
-  <si>
-    <t>Modify Reason</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>Delete Reason</t>
-  </si>
-  <si>
-    <t>Durga Puja</t>
-  </si>
-  <si>
-    <t>23:59:00</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>(Add)</t>
-  </si>
-  <si>
-    <t>(Different VDN same holiday)</t>
-  </si>
-  <si>
-    <t>sameVDN same holiday different date</t>
-  </si>
-  <si>
-    <t>same date same VDN different holiday</t>
-  </si>
-  <si>
-    <t>differntdate and same time</t>
-  </si>
-  <si>
-    <t>same date and same time )</t>
-  </si>
-  <si>
-    <t>SameVDN different holiday different date</t>
-  </si>
-  <si>
-    <t>Scenarios</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>19/12/2020</t>
-  </si>
-  <si>
-    <t>12/11/2020</t>
-  </si>
-  <si>
-    <t>15/11/2020</t>
-  </si>
-  <si>
-    <t>Makar Sankranti</t>
-  </si>
-  <si>
-    <t>14/01/2021</t>
-  </si>
-  <si>
-    <t>15/01/2021</t>
-  </si>
-  <si>
-    <t>50101</t>
-  </si>
-  <si>
-    <t>50103</t>
-  </si>
-  <si>
-    <t>21/08/2021</t>
-  </si>
-  <si>
-    <t>22/08/2021</t>
-  </si>
-  <si>
-    <t>16/01/2021</t>
-  </si>
-  <si>
-    <t>17/01/2021</t>
-  </si>
-  <si>
-    <t>Makar</t>
-  </si>
-  <si>
-    <t>18/01/2021</t>
-  </si>
-  <si>
-    <t>19/01/2021</t>
+  ,VDN as 'Skill/VDN'
+  ,ISNULL(VDN_NAME, VDN) AS 'Skill/ VDN Name' FROM IVR_HOLIDAY_LIST I LEFT JOIN VDN_DETAILS ON VDN = VDN_No Order By Start_Date ASC ;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,9 +298,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +350,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,25 +542,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BD546D-3260-4B48-B538-D7B011115452}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,168 +571,30 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -713,25 +603,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,61 +641,196 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -825,36 +850,36 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -863,26 +888,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A21" sqref="A11:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.85546875" customWidth="1"/>
+    <col min="1" max="1" width="83.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="159.6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
